--- a/data/output/FV2410_FV2404/INVOIC/31006.xlsx
+++ b/data/output/FV2410_FV2404/INVOIC/31006.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="315">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="315">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1055,6 +1055,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U167" totalsRowShown="0">
+  <autoFilter ref="A1:U167"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1344,7 +1374,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9160,5 +9193,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/INVOIC/31006.xlsx
+++ b/data/output/FV2410_FV2404/INVOIC/31006.xlsx
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3269,7 +3269,7 @@
         <v>299</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -3457,7 +3457,7 @@
         <v>300</v>
       </c>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2"/>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N38" s="2"/>
@@ -3833,7 +3833,7 @@
         <v>301</v>
       </c>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N42" s="2"/>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7035,7 +7035,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -8497,7 +8497,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9011,7 +9011,7 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N144" s="2"/>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -9767,7 +9767,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -9917,7 +9917,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N165" s="2"/>
